--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A65420-884C-45FF-B5AB-340E7808AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49C637-F458-48B4-BD53-A7CE9EEABD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -701,26 +701,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CategoryName</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>文字列あり</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>"All"</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>"bag"</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>"hat"</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1004,6 +988,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CategoryId</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1048,7 +1036,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,6 +1052,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,7 +1963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,11 +2267,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2285,26 +2288,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,27 +2340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2481,7 +2478,7 @@
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>47389</xdr:rowOff>
+      <xdr:rowOff>51199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2850,77 +2847,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="107" t="s">
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="108" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="107" t="s">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="108" t="s">
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="107" t="s">
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="108" t="s">
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
       <c r="BD1" s="105">
         <v>45560</v>
       </c>
@@ -3128,25 +3125,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -3157,42 +3154,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="108" t="s">
+      <c r="AB2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="107" t="s">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="108" t="s">
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="108" t="s">
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -3461,927 +3458,942 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="103" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="104"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107"/>
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103" t="s">
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103" t="s">
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103" t="s">
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="103"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="106"/>
+      <c r="BI8" s="106"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="102"/>
-      <c r="BC11" s="102"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="102"/>
-      <c r="BI11" s="102"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="103"/>
-      <c r="AW13" s="103"/>
-      <c r="AX13" s="103"/>
-      <c r="AY13" s="103"/>
-      <c r="AZ13" s="103"/>
-      <c r="BA13" s="103"/>
-      <c r="BB13" s="103"/>
-      <c r="BC13" s="103"/>
-      <c r="BD13" s="103"/>
-      <c r="BE13" s="103"/>
-      <c r="BF13" s="103"/>
-      <c r="BG13" s="103"/>
-      <c r="BH13" s="103"/>
-      <c r="BI13" s="103"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="106"/>
+      <c r="AZ13" s="106"/>
+      <c r="BA13" s="106"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="106"/>
+      <c r="BE13" s="106"/>
+      <c r="BF13" s="106"/>
+      <c r="BG13" s="106"/>
+      <c r="BH13" s="106"/>
+      <c r="BI13" s="106"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="102"/>
-      <c r="AU14" s="102"/>
-      <c r="AV14" s="102"/>
-      <c r="AW14" s="102"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="102"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102"/>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="102"/>
-      <c r="BI14" s="102"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="110"/>
+      <c r="AN14" s="110"/>
+      <c r="AO14" s="110"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="110"/>
+      <c r="AR14" s="110"/>
+      <c r="AS14" s="110"/>
+      <c r="AT14" s="110"/>
+      <c r="AU14" s="110"/>
+      <c r="AV14" s="110"/>
+      <c r="AW14" s="110"/>
+      <c r="AX14" s="110"/>
+      <c r="AY14" s="110"/>
+      <c r="AZ14" s="110"/>
+      <c r="BA14" s="110"/>
+      <c r="BB14" s="110"/>
+      <c r="BC14" s="110"/>
+      <c r="BD14" s="110"/>
+      <c r="BE14" s="110"/>
+      <c r="BF14" s="110"/>
+      <c r="BG14" s="110"/>
+      <c r="BH14" s="110"/>
+      <c r="BI14" s="110"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="102"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
-      <c r="BC15" s="102"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="102"/>
-      <c r="BI15" s="102"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="110"/>
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="110"/>
+      <c r="BA15" s="110"/>
+      <c r="BB15" s="110"/>
+      <c r="BC15" s="110"/>
+      <c r="BD15" s="110"/>
+      <c r="BE15" s="110"/>
+      <c r="BF15" s="110"/>
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
-      <c r="BC16" s="102"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102"/>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="102"/>
-      <c r="BI16" s="102"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AN16" s="110"/>
+      <c r="AO16" s="110"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="110"/>
+      <c r="AS16" s="110"/>
+      <c r="AT16" s="110"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="110"/>
+      <c r="AW16" s="110"/>
+      <c r="AX16" s="110"/>
+      <c r="AY16" s="110"/>
+      <c r="AZ16" s="110"/>
+      <c r="BA16" s="110"/>
+      <c r="BB16" s="110"/>
+      <c r="BC16" s="110"/>
+      <c r="BD16" s="110"/>
+      <c r="BE16" s="110"/>
+      <c r="BF16" s="110"/>
+      <c r="BG16" s="110"/>
+      <c r="BH16" s="110"/>
+      <c r="BI16" s="110"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="102"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="102"/>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="102"/>
-      <c r="AX17" s="102"/>
-      <c r="AY17" s="102"/>
-      <c r="AZ17" s="102"/>
-      <c r="BA17" s="102"/>
-      <c r="BB17" s="102"/>
-      <c r="BC17" s="102"/>
-      <c r="BD17" s="102"/>
-      <c r="BE17" s="102"/>
-      <c r="BF17" s="102"/>
-      <c r="BG17" s="102"/>
-      <c r="BH17" s="102"/>
-      <c r="BI17" s="102"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
+      <c r="AN17" s="110"/>
+      <c r="AO17" s="110"/>
+      <c r="AP17" s="110"/>
+      <c r="AQ17" s="110"/>
+      <c r="AR17" s="110"/>
+      <c r="AS17" s="110"/>
+      <c r="AT17" s="110"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="110"/>
+      <c r="AW17" s="110"/>
+      <c r="AX17" s="110"/>
+      <c r="AY17" s="110"/>
+      <c r="AZ17" s="110"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="110"/>
+      <c r="BG17" s="110"/>
+      <c r="BH17" s="110"/>
+      <c r="BI17" s="110"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="102"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="102"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102"/>
-      <c r="AX18" s="102"/>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="102"/>
-      <c r="BA18" s="102"/>
-      <c r="BB18" s="102"/>
-      <c r="BC18" s="102"/>
-      <c r="BD18" s="102"/>
-      <c r="BE18" s="102"/>
-      <c r="BF18" s="102"/>
-      <c r="BG18" s="102"/>
-      <c r="BH18" s="102"/>
-      <c r="BI18" s="102"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="110"/>
+      <c r="AN18" s="110"/>
+      <c r="AO18" s="110"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="110"/>
+      <c r="AR18" s="110"/>
+      <c r="AS18" s="110"/>
+      <c r="AT18" s="110"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="110"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="110"/>
+      <c r="BA18" s="110"/>
+      <c r="BB18" s="110"/>
+      <c r="BC18" s="110"/>
+      <c r="BD18" s="110"/>
+      <c r="BE18" s="110"/>
+      <c r="BF18" s="110"/>
+      <c r="BG18" s="110"/>
+      <c r="BH18" s="110"/>
+      <c r="BI18" s="110"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="102"/>
-      <c r="AG19" s="102"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="102"/>
-      <c r="AM19" s="102"/>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="102"/>
-      <c r="AT19" s="102"/>
-      <c r="AU19" s="102"/>
-      <c r="AV19" s="102"/>
-      <c r="AW19" s="102"/>
-      <c r="AX19" s="102"/>
-      <c r="AY19" s="102"/>
-      <c r="AZ19" s="102"/>
-      <c r="BA19" s="102"/>
-      <c r="BB19" s="102"/>
-      <c r="BC19" s="102"/>
-      <c r="BD19" s="102"/>
-      <c r="BE19" s="102"/>
-      <c r="BF19" s="102"/>
-      <c r="BG19" s="102"/>
-      <c r="BH19" s="102"/>
-      <c r="BI19" s="102"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="110"/>
+      <c r="AO19" s="110"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="110"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="110"/>
+      <c r="AT19" s="110"/>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="110"/>
+      <c r="AW19" s="110"/>
+      <c r="AX19" s="110"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="110"/>
+      <c r="BA19" s="110"/>
+      <c r="BB19" s="110"/>
+      <c r="BC19" s="110"/>
+      <c r="BD19" s="110"/>
+      <c r="BE19" s="110"/>
+      <c r="BF19" s="110"/>
+      <c r="BG19" s="110"/>
+      <c r="BH19" s="110"/>
+      <c r="BI19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -4398,29 +4410,14 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4434,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4444,75 +4441,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="107" t="s">
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="108" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="108" t="s">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="107" t="s">
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="108" t="s">
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
       <c r="BD1" s="105">
         <v>45554</v>
       </c>
@@ -4720,25 +4717,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -4749,42 +4746,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="108" t="s">
+      <c r="AB2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="107" t="s">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="108" t="s">
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="108" t="s">
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -5053,71 +5050,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5317,71 +5314,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -5841,75 +5838,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121" t="s">
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="121"/>
-      <c r="BG7" s="121"/>
-      <c r="BH7" s="121"/>
-      <c r="BI7" s="121"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="118"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="118"/>
+      <c r="AR7" s="118"/>
+      <c r="AS7" s="118"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="118"/>
+      <c r="BB7" s="118"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="118"/>
+      <c r="BE7" s="118"/>
+      <c r="BF7" s="118"/>
+      <c r="BG7" s="118"/>
+      <c r="BH7" s="118"/>
+      <c r="BI7" s="118"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -6109,75 +6106,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="118" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="118" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="118" t="s">
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="119"/>
-      <c r="AO8" s="119"/>
-      <c r="AP8" s="119"/>
-      <c r="AQ8" s="119"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
-      <c r="BC8" s="119"/>
-      <c r="BD8" s="119"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="119"/>
-      <c r="BG8" s="119"/>
-      <c r="BH8" s="119"/>
-      <c r="BI8" s="120"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="116"/>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="117"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -6377,75 +6374,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111" t="s">
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="114"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
+      <c r="BI9" s="114"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -6645,75 +6642,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="104" t="s">
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -6913,75 +6910,75 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="111" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111" t="s">
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111" t="s">
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
-      <c r="AY11" s="111"/>
-      <c r="AZ11" s="111"/>
-      <c r="BA11" s="111"/>
-      <c r="BB11" s="111"/>
-      <c r="BC11" s="111"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="111"/>
-      <c r="BF11" s="111"/>
-      <c r="BG11" s="111"/>
-      <c r="BH11" s="111"/>
-      <c r="BI11" s="111"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -7181,75 +7178,75 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111" t="s">
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="111"/>
-      <c r="AK12" s="111"/>
-      <c r="AL12" s="111"/>
-      <c r="AM12" s="111"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
-      <c r="AX12" s="111"/>
-      <c r="AY12" s="111"/>
-      <c r="AZ12" s="111"/>
-      <c r="BA12" s="111"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="111"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="111"/>
-      <c r="BF12" s="111"/>
-      <c r="BG12" s="111"/>
-      <c r="BH12" s="111"/>
-      <c r="BI12" s="111"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -7449,75 +7446,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="111" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="111"/>
-      <c r="AL13" s="111"/>
-      <c r="AM13" s="111"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
-      <c r="AX13" s="111"/>
-      <c r="AY13" s="111"/>
-      <c r="AZ13" s="111"/>
-      <c r="BA13" s="111"/>
-      <c r="BB13" s="111"/>
-      <c r="BC13" s="111"/>
-      <c r="BD13" s="111"/>
-      <c r="BE13" s="111"/>
-      <c r="BF13" s="111"/>
-      <c r="BG13" s="111"/>
-      <c r="BH13" s="111"/>
-      <c r="BI13" s="111"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -7717,75 +7714,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="111"/>
-      <c r="AJ14" s="111"/>
-      <c r="AK14" s="111"/>
-      <c r="AL14" s="111"/>
-      <c r="AM14" s="111"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="111"/>
-      <c r="AY14" s="111"/>
-      <c r="AZ14" s="111"/>
-      <c r="BA14" s="111"/>
-      <c r="BB14" s="111"/>
-      <c r="BC14" s="111"/>
-      <c r="BD14" s="111"/>
-      <c r="BE14" s="111"/>
-      <c r="BF14" s="111"/>
-      <c r="BG14" s="111"/>
-      <c r="BH14" s="111"/>
-      <c r="BI14" s="111"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -7985,75 +7982,75 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="111" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111" t="s">
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111" t="s">
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
-      <c r="AX15" s="111"/>
-      <c r="AY15" s="111"/>
-      <c r="AZ15" s="111"/>
-      <c r="BA15" s="111"/>
-      <c r="BB15" s="111"/>
-      <c r="BC15" s="111"/>
-      <c r="BD15" s="111"/>
-      <c r="BE15" s="111"/>
-      <c r="BF15" s="111"/>
-      <c r="BG15" s="111"/>
-      <c r="BH15" s="111"/>
-      <c r="BI15" s="111"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -8253,75 +8250,75 @@
       <c r="IX15" s="1"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="111" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111" t="s">
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="111"/>
-      <c r="AJ16" s="111"/>
-      <c r="AK16" s="111"/>
-      <c r="AL16" s="111"/>
-      <c r="AM16" s="111"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
-      <c r="AX16" s="111"/>
-      <c r="AY16" s="111"/>
-      <c r="AZ16" s="111"/>
-      <c r="BA16" s="111"/>
-      <c r="BB16" s="111"/>
-      <c r="BC16" s="111"/>
-      <c r="BD16" s="111"/>
-      <c r="BE16" s="111"/>
-      <c r="BF16" s="111"/>
-      <c r="BG16" s="111"/>
-      <c r="BH16" s="111"/>
-      <c r="BI16" s="111"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -9301,75 +9298,75 @@
       <c r="IX19" s="1"/>
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="116" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="114" t="s">
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="112" t="s">
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="122"/>
+      <c r="AP20" s="122"/>
+      <c r="AQ20" s="122"/>
+      <c r="AR20" s="122"/>
+      <c r="AS20" s="123"/>
+      <c r="AT20" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="AU20" s="112"/>
-      <c r="AV20" s="112"/>
-      <c r="AW20" s="112"/>
-      <c r="AX20" s="112"/>
-      <c r="AY20" s="112"/>
-      <c r="AZ20" s="112"/>
-      <c r="BA20" s="112"/>
-      <c r="BB20" s="112"/>
-      <c r="BC20" s="112"/>
-      <c r="BD20" s="112"/>
-      <c r="BE20" s="112"/>
-      <c r="BF20" s="112"/>
-      <c r="BG20" s="112"/>
-      <c r="BH20" s="112"/>
-      <c r="BI20" s="113"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="120"/>
+      <c r="BE20" s="120"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="121"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
@@ -10066,7 +10063,7 @@
     </row>
     <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11"/>
@@ -11615,7 +11612,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="25"/>
       <c r="S29" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -11841,14 +11838,14 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="25"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
@@ -12076,13 +12073,13 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="25"/>
       <c r="S31" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -12307,11 +12304,11 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R32" s="25"/>
       <c r="T32" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AT32" s="8"/>
       <c r="BI32" s="44"/>
@@ -12514,7 +12511,7 @@
       <c r="Q33" s="51"/>
       <c r="R33" s="25"/>
       <c r="S33" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -12744,7 +12741,7 @@
       <c r="R34" s="26"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -15063,7 +15060,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
@@ -15323,7 +15320,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
@@ -21958,13 +21955,13 @@
         <v>88</v>
       </c>
       <c r="AT75" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="O76" s="36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
@@ -22107,20 +22104,41 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="65">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:BI14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE15:BI15"/>
-    <mergeCell ref="AE12:BI12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="AT20:BI20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="S20:AS20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="AE16:BI16"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -22137,41 +22155,20 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:O12"/>
     <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="AT20:BI20"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="S20:AS20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AE16:BI16"/>
+    <mergeCell ref="AE12:BI12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:BI14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE15:BI15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -22194,8 +22191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60819F-A109-4172-92F3-2A8E91A8D2AE}">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22216,39 +22213,88 @@
     <row r="2" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
     </row>
-    <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+    </row>
     <row r="6" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="101"/>
-      <c r="R6" s="100"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
     </row>
     <row r="7" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R7" s="100"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
     </row>
     <row r="9" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R9" s="100"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R10" s="100"/>
     </row>
     <row r="11" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="140"/>
+      <c r="E11" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="141"/>
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
       <c r="R11" s="100"/>
@@ -22291,11 +22337,11 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
       <c r="R12" s="100"/>
-      <c r="T12" s="141" t="s">
+      <c r="T12" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="U12" s="86" t="s">
         <v>105</v>
-      </c>
-      <c r="U12" s="86" t="s">
-        <v>109</v>
       </c>
       <c r="V12" s="87"/>
       <c r="W12" s="88"/>
@@ -22303,52 +22349,52 @@
       <c r="Y12" s="89"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="129" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="M13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="N13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="61" t="s">
+      <c r="O13" s="76" t="s">
         <v>111</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="76" t="s">
-        <v>115</v>
       </c>
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
       <c r="R13" s="100"/>
-      <c r="T13" s="142"/>
+      <c r="T13" s="143"/>
       <c r="U13" s="90"/>
       <c r="V13" s="57" t="s">
         <v>76</v>
@@ -22358,52 +22404,52 @@
       <c r="Y13" s="91"/>
     </row>
     <row r="14" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H14" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="L14" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="N14" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="61" t="s">
+      <c r="O14" s="76" t="s">
         <v>111</v>
-      </c>
-      <c r="M14" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="76" t="s">
-        <v>115</v>
       </c>
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
       <c r="R14" s="100"/>
-      <c r="T14" s="142" t="s">
-        <v>106</v>
+      <c r="T14" s="143" t="s">
+        <v>102</v>
       </c>
       <c r="U14" s="92" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="V14" s="55"/>
       <c r="W14" s="55"/>
@@ -22411,99 +22457,99 @@
       <c r="Y14" s="93"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="126"/>
-      <c r="C15" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>101</v>
+      <c r="B15" s="127"/>
+      <c r="C15" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="68">
+        <v>0</v>
       </c>
       <c r="E15" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="61" t="s">
+      <c r="L15" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="M15" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="N15" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="O15" s="76" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P15" s="100"/>
       <c r="R15" s="100"/>
-      <c r="T15" s="142"/>
+      <c r="T15" s="143"/>
       <c r="U15" s="94"/>
       <c r="V15" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="W15" s="20"/>
       <c r="X15" s="54"/>
       <c r="Y15" s="95"/>
     </row>
     <row r="16" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="126"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="68" t="s">
-        <v>102</v>
+      <c r="B16" s="127"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="68">
+        <v>1</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F16" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="61" t="s">
+      <c r="L16" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="M16" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N16" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="76" t="s">
         <v>111</v>
-      </c>
-      <c r="O16" s="76" t="s">
-        <v>115</v>
       </c>
       <c r="P16" s="100"/>
       <c r="R16" s="100"/>
-      <c r="T16" s="142"/>
+      <c r="T16" s="143"/>
       <c r="U16" s="96"/>
       <c r="V16" s="57" t="s">
         <v>76</v>
@@ -22513,49 +22559,49 @@
       <c r="Y16" s="91"/>
     </row>
     <row r="17" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="127"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="69" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="69">
+        <v>2</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" s="142" t="s">
-        <v>107</v>
-      </c>
       <c r="U17" s="92" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="56"/>
@@ -22563,15 +22609,15 @@
       <c r="Y17" s="93"/>
     </row>
     <row r="18" spans="2:25" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="133"/>
+      <c r="B18" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="134"/>
       <c r="D18" s="70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -22585,7 +22631,7 @@
       <c r="O18" s="81"/>
       <c r="P18" s="100"/>
       <c r="R18" s="100"/>
-      <c r="T18" s="142"/>
+      <c r="T18" s="143"/>
       <c r="U18" s="94"/>
       <c r="V18" s="20" t="s">
         <v>95</v>
@@ -22595,17 +22641,17 @@
       <c r="Y18" s="95"/>
     </row>
     <row r="19" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="68" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
@@ -22617,7 +22663,7 @@
       <c r="O19" s="76"/>
       <c r="P19" s="100"/>
       <c r="R19" s="100"/>
-      <c r="T19" s="142"/>
+      <c r="T19" s="143"/>
       <c r="U19" s="96"/>
       <c r="V19" s="57" t="s">
         <v>76</v>
@@ -22627,16 +22673,16 @@
       <c r="Y19" s="91"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="68" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
@@ -22648,11 +22694,11 @@
       <c r="P20" s="100"/>
       <c r="Q20" s="100"/>
       <c r="R20" s="100"/>
-      <c r="T20" s="142" t="s">
-        <v>108</v>
+      <c r="T20" s="143" t="s">
+        <v>104</v>
       </c>
       <c r="U20" s="92" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
@@ -22660,20 +22706,20 @@
       <c r="Y20" s="93"/>
     </row>
     <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
@@ -22683,20 +22729,20 @@
       <c r="P21" s="100"/>
       <c r="Q21" s="100"/>
       <c r="R21" s="100"/>
-      <c r="T21" s="142"/>
+      <c r="T21" s="143"/>
       <c r="U21" s="94"/>
       <c r="V21" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W21" s="20"/>
       <c r="X21" s="54"/>
       <c r="Y21" s="95"/>
     </row>
     <row r="22" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
@@ -22705,24 +22751,24 @@
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L22" s="84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M22" s="84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N22" s="84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O22" s="85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P22" s="100"/>
       <c r="Q22" s="100"/>
       <c r="R22" s="100"/>
-      <c r="T22" s="143"/>
+      <c r="T22" s="144"/>
       <c r="U22" s="97"/>
       <c r="V22" s="98" t="s">
         <v>76</v>
@@ -22754,12 +22800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -22891,6 +22931,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22901,15 +22947,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22927,6 +22964,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>

--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49C637-F458-48B4-BD53-A7CE9EEABD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED7397-720C-40E1-BD5E-4D035BABA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>itemName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>categoryName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -860,22 +856,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.2 変数items内のCategoriesDTOインスタンスのsetCategoriesメソッド呼出</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IFindableDataToList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -949,9 +929,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数：categoryName</t>
-  </si>
-  <si>
     <t>為の型変換</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -991,6 +968,61 @@
   <si>
     <t>CategoryId</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>categoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0(すべてを選択)</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1(帽子を選択)</t>
+    <rPh sb="2" eb="4">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2(鞄を選択)</t>
+    <rPh sb="2" eb="3">
+      <t>カバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>引数：categoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.2 変数items内のCategoriesDTOインスタンスのsetCategoryIdメソッド呼出</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2171,9 +2203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2273,14 +2302,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2288,41 +2311,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2340,6 +2348,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2390,13 +2428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2426,22 +2458,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>20956</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38058</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>17560</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>55009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9254D4A-CA8F-421C-8606-C6D2DA179B21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37979DD2-5BF0-4EE5-A781-B25F69FB5EAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +2489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3930016" y="8831538"/>
-          <a:ext cx="4916804" cy="2456002"/>
+          <a:off x="3947161" y="11247589"/>
+          <a:ext cx="4899659" cy="2546280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2470,22 +2502,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>168109</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>51199</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37979DD2-5BF0-4EE5-A781-B25F69FB5EAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745BCA28-FC53-4C8B-9BD0-18EF4B63A657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,8 +2533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947161" y="11247589"/>
-          <a:ext cx="4899659" cy="2546280"/>
+          <a:off x="4065270" y="8924850"/>
+          <a:ext cx="4890135" cy="2320784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2847,77 +2879,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="103" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="103" t="s">
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="104" t="s">
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="103" t="s">
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="104" t="s">
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="103" t="s">
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
       <c r="BD1" s="105">
         <v>45560</v>
       </c>
@@ -3125,25 +3157,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="103" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -3154,42 +3186,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="103" t="s">
+      <c r="AB2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="103" t="s">
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="103" t="s">
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="108"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -3458,942 +3490,927 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="104"/>
+      <c r="BI5" s="104"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="106" t="s">
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="107" t="s">
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="107"/>
-      <c r="AL6" s="107"/>
-      <c r="AM6" s="107"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="107"/>
-      <c r="BC6" s="107"/>
-      <c r="BD6" s="107"/>
-      <c r="BE6" s="107"/>
-      <c r="BF6" s="107"/>
-      <c r="BG6" s="107"/>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="107"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="104"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106" t="s">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106" t="s">
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106" t="s">
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106" t="s">
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="106"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="106"/>
-      <c r="BC8" s="106"/>
-      <c r="BD8" s="106"/>
-      <c r="BE8" s="106"/>
-      <c r="BF8" s="106"/>
-      <c r="BG8" s="106"/>
-      <c r="BH8" s="106"/>
-      <c r="BI8" s="106"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="103"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="103"/>
+      <c r="BC8" s="103"/>
+      <c r="BD8" s="103"/>
+      <c r="BE8" s="103"/>
+      <c r="BF8" s="103"/>
+      <c r="BG8" s="103"/>
+      <c r="BH8" s="103"/>
+      <c r="BI8" s="103"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="110"/>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="110"/>
-      <c r="BH9" s="110"/>
-      <c r="BI9" s="110"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="102"/>
+      <c r="AY9" s="102"/>
+      <c r="AZ9" s="102"/>
+      <c r="BA9" s="102"/>
+      <c r="BB9" s="102"/>
+      <c r="BC9" s="102"/>
+      <c r="BD9" s="102"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="102"/>
+      <c r="BG9" s="102"/>
+      <c r="BH9" s="102"/>
+      <c r="BI9" s="102"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="110"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="110"/>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="110"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="102"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
+      <c r="BC11" s="102"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="102"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="102"/>
+      <c r="BI11" s="102"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="106"/>
-      <c r="AZ13" s="106"/>
-      <c r="BA13" s="106"/>
-      <c r="BB13" s="106"/>
-      <c r="BC13" s="106"/>
-      <c r="BD13" s="106"/>
-      <c r="BE13" s="106"/>
-      <c r="BF13" s="106"/>
-      <c r="BG13" s="106"/>
-      <c r="BH13" s="106"/>
-      <c r="BI13" s="106"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="103"/>
+      <c r="AV13" s="103"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="103"/>
+      <c r="AY13" s="103"/>
+      <c r="AZ13" s="103"/>
+      <c r="BA13" s="103"/>
+      <c r="BB13" s="103"/>
+      <c r="BC13" s="103"/>
+      <c r="BD13" s="103"/>
+      <c r="BE13" s="103"/>
+      <c r="BF13" s="103"/>
+      <c r="BG13" s="103"/>
+      <c r="BH13" s="103"/>
+      <c r="BI13" s="103"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="110"/>
-      <c r="AS14" s="110"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="110"/>
-      <c r="AV14" s="110"/>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="110"/>
-      <c r="AY14" s="110"/>
-      <c r="AZ14" s="110"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="110"/>
-      <c r="BC14" s="110"/>
-      <c r="BD14" s="110"/>
-      <c r="BE14" s="110"/>
-      <c r="BF14" s="110"/>
-      <c r="BG14" s="110"/>
-      <c r="BH14" s="110"/>
-      <c r="BI14" s="110"/>
+      <c r="A14" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="102"/>
+      <c r="AO14" s="102"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="102"/>
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
+      <c r="AX14" s="102"/>
+      <c r="AY14" s="102"/>
+      <c r="AZ14" s="102"/>
+      <c r="BA14" s="102"/>
+      <c r="BB14" s="102"/>
+      <c r="BC14" s="102"/>
+      <c r="BD14" s="102"/>
+      <c r="BE14" s="102"/>
+      <c r="BF14" s="102"/>
+      <c r="BG14" s="102"/>
+      <c r="BH14" s="102"/>
+      <c r="BI14" s="102"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="110"/>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="110"/>
-      <c r="AS15" s="110"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="110"/>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="110"/>
-      <c r="AZ15" s="110"/>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="110"/>
-      <c r="BC15" s="110"/>
-      <c r="BD15" s="110"/>
-      <c r="BE15" s="110"/>
-      <c r="BF15" s="110"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="102"/>
+      <c r="AO15" s="102"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="102"/>
+      <c r="AS15" s="102"/>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="102"/>
+      <c r="AW15" s="102"/>
+      <c r="AX15" s="102"/>
+      <c r="AY15" s="102"/>
+      <c r="AZ15" s="102"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="102"/>
+      <c r="BC15" s="102"/>
+      <c r="BD15" s="102"/>
+      <c r="BE15" s="102"/>
+      <c r="BF15" s="102"/>
+      <c r="BG15" s="102"/>
+      <c r="BH15" s="102"/>
+      <c r="BI15" s="102"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="110"/>
-      <c r="AO16" s="110"/>
-      <c r="AP16" s="110"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="110"/>
-      <c r="AS16" s="110"/>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="110"/>
-      <c r="AV16" s="110"/>
-      <c r="AW16" s="110"/>
-      <c r="AX16" s="110"/>
-      <c r="AY16" s="110"/>
-      <c r="AZ16" s="110"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="110"/>
-      <c r="BC16" s="110"/>
-      <c r="BD16" s="110"/>
-      <c r="BE16" s="110"/>
-      <c r="BF16" s="110"/>
-      <c r="BG16" s="110"/>
-      <c r="BH16" s="110"/>
-      <c r="BI16" s="110"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="102"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="102"/>
+      <c r="AR16" s="102"/>
+      <c r="AS16" s="102"/>
+      <c r="AT16" s="102"/>
+      <c r="AU16" s="102"/>
+      <c r="AV16" s="102"/>
+      <c r="AW16" s="102"/>
+      <c r="AX16" s="102"/>
+      <c r="AY16" s="102"/>
+      <c r="AZ16" s="102"/>
+      <c r="BA16" s="102"/>
+      <c r="BB16" s="102"/>
+      <c r="BC16" s="102"/>
+      <c r="BD16" s="102"/>
+      <c r="BE16" s="102"/>
+      <c r="BF16" s="102"/>
+      <c r="BG16" s="102"/>
+      <c r="BH16" s="102"/>
+      <c r="BI16" s="102"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="110"/>
-      <c r="AO17" s="110"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="110"/>
-      <c r="AS17" s="110"/>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="110"/>
-      <c r="AZ17" s="110"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
-      <c r="BC17" s="110"/>
-      <c r="BD17" s="110"/>
-      <c r="BE17" s="110"/>
-      <c r="BF17" s="110"/>
-      <c r="BG17" s="110"/>
-      <c r="BH17" s="110"/>
-      <c r="BI17" s="110"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="102"/>
+      <c r="AP17" s="102"/>
+      <c r="AQ17" s="102"/>
+      <c r="AR17" s="102"/>
+      <c r="AS17" s="102"/>
+      <c r="AT17" s="102"/>
+      <c r="AU17" s="102"/>
+      <c r="AV17" s="102"/>
+      <c r="AW17" s="102"/>
+      <c r="AX17" s="102"/>
+      <c r="AY17" s="102"/>
+      <c r="AZ17" s="102"/>
+      <c r="BA17" s="102"/>
+      <c r="BB17" s="102"/>
+      <c r="BC17" s="102"/>
+      <c r="BD17" s="102"/>
+      <c r="BE17" s="102"/>
+      <c r="BF17" s="102"/>
+      <c r="BG17" s="102"/>
+      <c r="BH17" s="102"/>
+      <c r="BI17" s="102"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="110"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="110"/>
-      <c r="AZ18" s="110"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="110"/>
-      <c r="BC18" s="110"/>
-      <c r="BD18" s="110"/>
-      <c r="BE18" s="110"/>
-      <c r="BF18" s="110"/>
-      <c r="BG18" s="110"/>
-      <c r="BH18" s="110"/>
-      <c r="BI18" s="110"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="102"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="102"/>
+      <c r="AO18" s="102"/>
+      <c r="AP18" s="102"/>
+      <c r="AQ18" s="102"/>
+      <c r="AR18" s="102"/>
+      <c r="AS18" s="102"/>
+      <c r="AT18" s="102"/>
+      <c r="AU18" s="102"/>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="102"/>
+      <c r="AX18" s="102"/>
+      <c r="AY18" s="102"/>
+      <c r="AZ18" s="102"/>
+      <c r="BA18" s="102"/>
+      <c r="BB18" s="102"/>
+      <c r="BC18" s="102"/>
+      <c r="BD18" s="102"/>
+      <c r="BE18" s="102"/>
+      <c r="BF18" s="102"/>
+      <c r="BG18" s="102"/>
+      <c r="BH18" s="102"/>
+      <c r="BI18" s="102"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
-      <c r="AW19" s="110"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="110"/>
-      <c r="AZ19" s="110"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="110"/>
-      <c r="BC19" s="110"/>
-      <c r="BD19" s="110"/>
-      <c r="BE19" s="110"/>
-      <c r="BF19" s="110"/>
-      <c r="BG19" s="110"/>
-      <c r="BH19" s="110"/>
-      <c r="BI19" s="110"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="102"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="102"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="102"/>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="102"/>
+      <c r="AV19" s="102"/>
+      <c r="AW19" s="102"/>
+      <c r="AX19" s="102"/>
+      <c r="AY19" s="102"/>
+      <c r="AZ19" s="102"/>
+      <c r="BA19" s="102"/>
+      <c r="BB19" s="102"/>
+      <c r="BC19" s="102"/>
+      <c r="BD19" s="102"/>
+      <c r="BE19" s="102"/>
+      <c r="BF19" s="102"/>
+      <c r="BG19" s="102"/>
+      <c r="BH19" s="102"/>
+      <c r="BI19" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -4410,14 +4427,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4431,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4441,75 +4473,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="103" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="103" t="s">
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="103" t="s">
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="104" t="s">
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="103" t="s">
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
       <c r="BD1" s="105">
         <v>45554</v>
       </c>
@@ -4717,25 +4749,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="103" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -4746,42 +4778,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="103" t="s">
+      <c r="AB2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="103" t="s">
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="103" t="s">
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="108"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -5050,71 +5082,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5314,71 +5346,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="107"/>
-      <c r="BA5" s="107"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="107"/>
-      <c r="BF5" s="107"/>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="107"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="104"/>
+      <c r="BI5" s="104"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -5838,75 +5870,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="118" t="s">
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="118"/>
-      <c r="AN7" s="118"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="118"/>
-      <c r="AR7" s="118"/>
-      <c r="AS7" s="118"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="118"/>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="118"/>
-      <c r="AX7" s="118"/>
-      <c r="AY7" s="118"/>
-      <c r="AZ7" s="118"/>
-      <c r="BA7" s="118"/>
-      <c r="BB7" s="118"/>
-      <c r="BC7" s="118"/>
-      <c r="BD7" s="118"/>
-      <c r="BE7" s="118"/>
-      <c r="BF7" s="118"/>
-      <c r="BG7" s="118"/>
-      <c r="BH7" s="118"/>
-      <c r="BI7" s="118"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="121"/>
+      <c r="BA7" s="121"/>
+      <c r="BB7" s="121"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="121"/>
+      <c r="BE7" s="121"/>
+      <c r="BF7" s="121"/>
+      <c r="BG7" s="121"/>
+      <c r="BH7" s="121"/>
+      <c r="BI7" s="121"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -6106,75 +6138,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="115" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="116"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="116"/>
-      <c r="AX8" s="116"/>
-      <c r="AY8" s="116"/>
-      <c r="AZ8" s="116"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="116"/>
-      <c r="BC8" s="116"/>
-      <c r="BD8" s="116"/>
-      <c r="BE8" s="116"/>
-      <c r="BF8" s="116"/>
-      <c r="BG8" s="116"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="117"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="119"/>
+      <c r="AO8" s="119"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="119"/>
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="119"/>
+      <c r="AU8" s="119"/>
+      <c r="AV8" s="119"/>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="119"/>
+      <c r="AY8" s="119"/>
+      <c r="AZ8" s="119"/>
+      <c r="BA8" s="119"/>
+      <c r="BB8" s="119"/>
+      <c r="BC8" s="119"/>
+      <c r="BD8" s="119"/>
+      <c r="BE8" s="119"/>
+      <c r="BF8" s="119"/>
+      <c r="BG8" s="119"/>
+      <c r="BH8" s="119"/>
+      <c r="BI8" s="120"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -6374,75 +6406,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="114"/>
-      <c r="BF9" s="114"/>
-      <c r="BG9" s="114"/>
-      <c r="BH9" s="114"/>
-      <c r="BI9" s="114"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="111"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -6642,75 +6674,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="110"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="110"/>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="110"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -6910,75 +6942,75 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114" t="s">
+      <c r="A11" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="114"/>
-      <c r="AK11" s="114"/>
-      <c r="AL11" s="114"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="114"/>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="114"/>
-      <c r="BA11" s="114"/>
-      <c r="BB11" s="114"/>
-      <c r="BC11" s="114"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="114"/>
-      <c r="BF11" s="114"/>
-      <c r="BG11" s="114"/>
-      <c r="BH11" s="114"/>
-      <c r="BI11" s="114"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="111"/>
+      <c r="AZ11" s="111"/>
+      <c r="BA11" s="111"/>
+      <c r="BB11" s="111"/>
+      <c r="BC11" s="111"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="111"/>
+      <c r="BF11" s="111"/>
+      <c r="BG11" s="111"/>
+      <c r="BH11" s="111"/>
+      <c r="BI11" s="111"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -7178,75 +7210,75 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="114" t="s">
+      <c r="A12" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="114"/>
-      <c r="AK12" s="114"/>
-      <c r="AL12" s="114"/>
-      <c r="AM12" s="114"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
-      <c r="AX12" s="114"/>
-      <c r="AY12" s="114"/>
-      <c r="AZ12" s="114"/>
-      <c r="BA12" s="114"/>
-      <c r="BB12" s="114"/>
-      <c r="BC12" s="114"/>
-      <c r="BD12" s="114"/>
-      <c r="BE12" s="114"/>
-      <c r="BF12" s="114"/>
-      <c r="BG12" s="114"/>
-      <c r="BH12" s="114"/>
-      <c r="BI12" s="114"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="111"/>
+      <c r="AL12" s="111"/>
+      <c r="AM12" s="111"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
+      <c r="AX12" s="111"/>
+      <c r="AY12" s="111"/>
+      <c r="AZ12" s="111"/>
+      <c r="BA12" s="111"/>
+      <c r="BB12" s="111"/>
+      <c r="BC12" s="111"/>
+      <c r="BD12" s="111"/>
+      <c r="BE12" s="111"/>
+      <c r="BF12" s="111"/>
+      <c r="BG12" s="111"/>
+      <c r="BH12" s="111"/>
+      <c r="BI12" s="111"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -7446,75 +7478,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-      <c r="AX13" s="114"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="114"/>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="114"/>
-      <c r="BC13" s="114"/>
-      <c r="BD13" s="114"/>
-      <c r="BE13" s="114"/>
-      <c r="BF13" s="114"/>
-      <c r="BG13" s="114"/>
-      <c r="BH13" s="114"/>
-      <c r="BI13" s="114"/>
+      <c r="A13" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="111"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="111"/>
+      <c r="BH13" s="111"/>
+      <c r="BI13" s="111"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -7714,75 +7746,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="114"/>
-      <c r="AK14" s="114"/>
-      <c r="AL14" s="114"/>
-      <c r="AM14" s="114"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
-      <c r="AX14" s="114"/>
-      <c r="AY14" s="114"/>
-      <c r="AZ14" s="114"/>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="114"/>
-      <c r="BC14" s="114"/>
-      <c r="BD14" s="114"/>
-      <c r="BE14" s="114"/>
-      <c r="BF14" s="114"/>
-      <c r="BG14" s="114"/>
-      <c r="BH14" s="114"/>
-      <c r="BI14" s="114"/>
+      <c r="A14" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
+      <c r="AK14" s="111"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="111"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
+      <c r="AX14" s="111"/>
+      <c r="AY14" s="111"/>
+      <c r="AZ14" s="111"/>
+      <c r="BA14" s="111"/>
+      <c r="BB14" s="111"/>
+      <c r="BC14" s="111"/>
+      <c r="BD14" s="111"/>
+      <c r="BE14" s="111"/>
+      <c r="BF14" s="111"/>
+      <c r="BG14" s="111"/>
+      <c r="BH14" s="111"/>
+      <c r="BI14" s="111"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -7982,75 +8014,75 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="114"/>
-      <c r="AK15" s="114"/>
-      <c r="AL15" s="114"/>
-      <c r="AM15" s="114"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
-      <c r="AX15" s="114"/>
-      <c r="AY15" s="114"/>
-      <c r="AZ15" s="114"/>
-      <c r="BA15" s="114"/>
-      <c r="BB15" s="114"/>
-      <c r="BC15" s="114"/>
-      <c r="BD15" s="114"/>
-      <c r="BE15" s="114"/>
-      <c r="BF15" s="114"/>
-      <c r="BG15" s="114"/>
-      <c r="BH15" s="114"/>
-      <c r="BI15" s="114"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
+      <c r="AX15" s="111"/>
+      <c r="AY15" s="111"/>
+      <c r="AZ15" s="111"/>
+      <c r="BA15" s="111"/>
+      <c r="BB15" s="111"/>
+      <c r="BC15" s="111"/>
+      <c r="BD15" s="111"/>
+      <c r="BE15" s="111"/>
+      <c r="BF15" s="111"/>
+      <c r="BG15" s="111"/>
+      <c r="BH15" s="111"/>
+      <c r="BI15" s="111"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -8250,75 +8282,75 @@
       <c r="IX15" s="1"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="114"/>
-      <c r="AJ16" s="114"/>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="114"/>
-      <c r="AM16" s="114"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="114"/>
-      <c r="AP16" s="114"/>
-      <c r="AQ16" s="114"/>
-      <c r="AR16" s="114"/>
-      <c r="AS16" s="114"/>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
-      <c r="AX16" s="114"/>
-      <c r="AY16" s="114"/>
-      <c r="AZ16" s="114"/>
-      <c r="BA16" s="114"/>
-      <c r="BB16" s="114"/>
-      <c r="BC16" s="114"/>
-      <c r="BD16" s="114"/>
-      <c r="BE16" s="114"/>
-      <c r="BF16" s="114"/>
-      <c r="BG16" s="114"/>
-      <c r="BH16" s="114"/>
-      <c r="BI16" s="114"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
+      <c r="AK16" s="111"/>
+      <c r="AL16" s="111"/>
+      <c r="AM16" s="111"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
+      <c r="AX16" s="111"/>
+      <c r="AY16" s="111"/>
+      <c r="AZ16" s="111"/>
+      <c r="BA16" s="111"/>
+      <c r="BB16" s="111"/>
+      <c r="BC16" s="111"/>
+      <c r="BD16" s="111"/>
+      <c r="BE16" s="111"/>
+      <c r="BF16" s="111"/>
+      <c r="BG16" s="111"/>
+      <c r="BH16" s="111"/>
+      <c r="BI16" s="111"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -9298,75 +9330,75 @@
       <c r="IX19" s="1"/>
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="122" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="122"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="122"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="122"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="122"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="123"/>
-      <c r="AT20" s="120" t="s">
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="120"/>
-      <c r="BA20" s="120"/>
-      <c r="BB20" s="120"/>
-      <c r="BC20" s="120"/>
-      <c r="BD20" s="120"/>
-      <c r="BE20" s="120"/>
-      <c r="BF20" s="120"/>
-      <c r="BG20" s="120"/>
-      <c r="BH20" s="120"/>
-      <c r="BI20" s="121"/>
+      <c r="AU20" s="112"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="112"/>
+      <c r="AX20" s="112"/>
+      <c r="AY20" s="112"/>
+      <c r="AZ20" s="112"/>
+      <c r="BA20" s="112"/>
+      <c r="BB20" s="112"/>
+      <c r="BC20" s="112"/>
+      <c r="BD20" s="112"/>
+      <c r="BE20" s="112"/>
+      <c r="BF20" s="112"/>
+      <c r="BG20" s="112"/>
+      <c r="BH20" s="112"/>
+      <c r="BI20" s="113"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
@@ -9585,7 +9617,7 @@
       </c>
       <c r="R21" s="25"/>
       <c r="S21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT21" s="5"/>
       <c r="AU21" s="9"/>
@@ -9815,14 +9847,14 @@
       <c r="M22" s="11"/>
       <c r="N22" s="30"/>
       <c r="O22" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="26"/>
       <c r="S22" s="49"/>
       <c r="T22" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -10063,7 +10095,7 @@
     </row>
     <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11"/>
@@ -10084,7 +10116,7 @@
       <c r="Q23" s="33"/>
       <c r="R23" s="25"/>
       <c r="S23" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
@@ -10338,7 +10370,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="51"/>
       <c r="O24" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -10602,7 +10634,7 @@
       <c r="Q25" s="33"/>
       <c r="R25" s="44"/>
       <c r="S25" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -10857,10 +10889,10 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -11115,11 +11147,11 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S27" s="28"/>
       <c r="T27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT27" s="8"/>
       <c r="AW27" s="10"/>
@@ -11348,7 +11380,7 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -11612,7 +11644,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="25"/>
       <c r="S29" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -11838,14 +11870,14 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="25"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
@@ -12057,9 +12089,6 @@
       <c r="IX30" s="1"/>
     </row>
     <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="B31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -12073,13 +12102,13 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="25"/>
       <c r="S31" s="20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -12292,6 +12321,9 @@
       <c r="IX31" s="1"/>
     </row>
     <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -12304,11 +12336,11 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R32" s="25"/>
       <c r="T32" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AT32" s="8"/>
       <c r="BI32" s="44"/>
@@ -12511,7 +12543,7 @@
       <c r="Q33" s="51"/>
       <c r="R33" s="25"/>
       <c r="S33" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -12741,7 +12773,7 @@
       <c r="R34" s="26"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -12974,7 +13006,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="25"/>
       <c r="S35" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
@@ -13230,14 +13262,14 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="25"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
@@ -13492,14 +13524,14 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="25"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
@@ -13754,13 +13786,13 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="25"/>
       <c r="S38" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
@@ -14021,7 +14053,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -14281,7 +14313,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
@@ -14541,7 +14573,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="29"/>
       <c r="T41" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
@@ -14799,7 +14831,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="25"/>
       <c r="S42" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
@@ -15060,7 +15092,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
@@ -15320,7 +15352,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
@@ -21837,7 +21869,7 @@
       <c r="Q72" s="20"/>
       <c r="R72" s="25"/>
       <c r="S72" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T72" s="43"/>
       <c r="U72" s="46"/>
@@ -21870,14 +21902,14 @@
     <row r="73" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="O73" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P73" s="20"/>
       <c r="Q73" s="20"/>
       <c r="R73" s="25"/>
       <c r="S73" s="20"/>
       <c r="T73" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
@@ -21909,7 +21941,7 @@
     <row r="74" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="O74" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
@@ -21952,16 +21984,16 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="25"/>
       <c r="S75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT75" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="O76" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
@@ -22006,13 +22038,13 @@
     <row r="78" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="O78" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="25"/>
       <c r="S78" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT78" s="8"/>
     </row>
@@ -22023,7 +22055,7 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="25"/>
       <c r="T79" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AT79" s="8"/>
     </row>
@@ -22034,7 +22066,7 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="25"/>
       <c r="T80" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT80" s="8"/>
     </row>
@@ -22045,7 +22077,7 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="25"/>
       <c r="S81" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT81" s="8"/>
     </row>
@@ -22056,7 +22088,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="25"/>
       <c r="T82" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT82" s="8"/>
     </row>
@@ -22067,7 +22099,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="25"/>
       <c r="T83" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT83" s="8"/>
     </row>
@@ -22077,7 +22109,7 @@
       <c r="Q84" s="13"/>
       <c r="R84" s="25"/>
       <c r="S84" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT84" s="8"/>
     </row>
@@ -22087,7 +22119,7 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="25"/>
       <c r="T85" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT85" s="8"/>
     </row>
@@ -22097,13 +22129,62 @@
       <c r="Q86" s="13"/>
       <c r="R86" s="25"/>
       <c r="T86" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT86" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="65">
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:BI14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE15:BI15"/>
+    <mergeCell ref="AE12:BI12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
@@ -22120,55 +22201,6 @@
     <mergeCell ref="S20:AS20"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="AE16:BI16"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:BI12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE13:BI13"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:BI14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE15:BI15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -22189,19 +22221,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60819F-A109-4172-92F3-2A8E91A8D2AE}">
-  <dimension ref="B1:Y23"/>
+  <dimension ref="B1:Y26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="18" width="2.7265625" customWidth="1"/>
+    <col min="5" max="15" width="2.7265625" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
+    <col min="17" max="17" width="2.36328125" customWidth="1"/>
+    <col min="18" max="18" width="2.7265625" customWidth="1"/>
     <col min="19" max="19" width="3.26953125" customWidth="1"/>
     <col min="20" max="20" width="12.6328125" customWidth="1"/>
     <col min="21" max="21" width="2.6328125" customWidth="1"/>
@@ -22213,411 +22248,411 @@
     <row r="2" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
     </row>
     <row r="6" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
     </row>
     <row r="7" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
     </row>
-    <row r="8" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
+    <row r="8" spans="2:25" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
     </row>
-    <row r="9" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+    <row r="9" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
     </row>
-    <row r="10" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R10" s="100"/>
+    <row r="10" spans="2:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R10" s="99"/>
     </row>
     <row r="11" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
+      <c r="E11" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
     </row>
     <row r="12" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="65"/>
-      <c r="E12" s="72">
+      <c r="E12" s="71">
         <v>1</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <v>2</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <v>3</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="72">
         <v>4</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="72">
         <v>5</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <v>6</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="72">
         <v>7</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="72">
         <v>8</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="72">
         <v>9</v>
       </c>
-      <c r="N12" s="73">
+      <c r="N12" s="72">
         <v>10</v>
       </c>
-      <c r="O12" s="74">
+      <c r="O12" s="73">
         <v>11</v>
       </c>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="T12" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="V12" s="87"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="89"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="T12" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="86"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="88"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="129" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="J13" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="K13" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="90"/>
+        <v>110</v>
+      </c>
+      <c r="O13" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
-      <c r="Y13" s="91"/>
+      <c r="Y13" s="90"/>
     </row>
     <row r="14" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>107</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="T14" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="92" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="O14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="T14" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14" s="91" t="s">
+        <v>124</v>
       </c>
       <c r="V14" s="55"/>
       <c r="W14" s="55"/>
       <c r="X14" s="56"/>
-      <c r="Y14" s="93"/>
+      <c r="Y14" s="92"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="68">
-        <v>0</v>
-      </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="J15" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="94"/>
+        <v>110</v>
+      </c>
+      <c r="O15" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W15" s="20"/>
       <c r="X15" s="54"/>
-      <c r="Y15" s="95"/>
+      <c r="Y15" s="94"/>
     </row>
     <row r="16" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="68">
-        <v>1</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>108</v>
+      <c r="B16" s="129"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>107</v>
       </c>
       <c r="F16" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="H16" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="K16" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L16" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="O16" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W16" s="57"/>
       <c r="X16" s="58"/>
-      <c r="Y16" s="91"/>
+      <c r="Y16" s="90"/>
     </row>
     <row r="17" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="128"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="69">
-        <v>2</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>108</v>
+      <c r="B17" s="130"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>107</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="63" t="s">
-        <v>108</v>
-      </c>
       <c r="I17" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="T17" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="U17" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="78" t="s">
         <v>106</v>
+      </c>
+      <c r="T17" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="U17" s="91" t="s">
+        <v>105</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="56"/>
       <c r="X17" s="56"/>
-      <c r="Y17" s="93"/>
+      <c r="Y17" s="92"/>
     </row>
     <row r="18" spans="2:25" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="136"/>
+      <c r="D18" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>109</v>
+      <c r="E18" s="79" t="s">
+        <v>108</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -22628,30 +22663,30 @@
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="94"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="93"/>
       <c r="V18" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
-      <c r="Y18" s="95"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="135"/>
-      <c r="C19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="77"/>
+        <v>101</v>
+      </c>
+      <c r="E19" s="76"/>
       <c r="F19" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
@@ -22660,29 +22695,29 @@
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="96"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="95"/>
       <c r="V19" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
-      <c r="Y19" s="91"/>
+      <c r="Y19" s="90"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="77"/>
+        <v>102</v>
+      </c>
+      <c r="E20" s="76"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
@@ -22690,100 +22725,102 @@
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="T20" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="U20" s="92" t="s">
-        <v>127</v>
+      <c r="O20" s="75"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="T20" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="91" t="s">
+        <v>125</v>
       </c>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
       <c r="X20" s="56"/>
-      <c r="Y20" s="93"/>
+      <c r="Y20" s="92"/>
     </row>
     <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="135"/>
-      <c r="C21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="77"/>
+        <v>103</v>
+      </c>
+      <c r="E21" s="76"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="94"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="93"/>
       <c r="V21" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W21" s="20"/>
       <c r="X21" s="54"/>
-      <c r="Y21" s="95"/>
+      <c r="Y21" s="94"/>
     </row>
     <row r="22" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="N22" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" s="98"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" s="97"/>
       <c r="X22" s="65"/>
-      <c r="Y22" s="99"/>
+      <c r="Y22" s="98"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U23" s="54"/>
       <c r="V23" s="54"/>
       <c r="W23" s="54"/>
     </row>
+    <row r="26" spans="2:25" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E11:O11"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="T14:T16"/>
     <mergeCell ref="T17:T19"/>
@@ -22792,7 +22829,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B18:C22"/>
-    <mergeCell ref="E11:O11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22800,6 +22836,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -22931,22 +22982,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22962,21 +23015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Service/SearchResultService_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED7397-720C-40E1-BD5E-4D035BABA56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A9849-E32E-4A66-A211-96A96E5FC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="204" yWindow="2244" windowWidth="20052" windowHeight="10224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -789,13 +789,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>空文字</t>
-    <rPh sb="0" eb="3">
-      <t>カラモジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>【検索条件一覧表】</t>
     <rPh sb="1" eb="8">
       <t>ケンサクジョウケンイチランヒョウ</t>
@@ -1023,6 +1016,13 @@
       <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空文字またはnull</t>
+    <rPh sb="0" eb="3">
+      <t>カラモジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2302,8 +2302,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2311,26 +2320,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2350,25 +2374,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2419,18 +2431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2458,15 +2458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>168109</xdr:rowOff>
+      <xdr:rowOff>76669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>55009</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>154069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2489,8 +2489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947161" y="11247589"/>
-          <a:ext cx="4899659" cy="2546280"/>
+          <a:off x="3990976" y="11154244"/>
+          <a:ext cx="4981574" cy="2553900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2502,22 +2502,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>30481</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>133275</xdr:rowOff>
+      <xdr:rowOff>58986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>154305</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>171869</xdr:rowOff>
+      <xdr:rowOff>105286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745BCA28-FC53-4C8B-9BD0-18EF4B63A657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDBF4F4-22CA-4EBE-B239-A4113247923F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,8 +2533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4065270" y="8924850"/>
-          <a:ext cx="4890135" cy="2320784"/>
+          <a:off x="3939541" y="8852466"/>
+          <a:ext cx="4808219" cy="2334205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,77 +2879,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="107" t="s">
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="108" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="107" t="s">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="108" t="s">
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="107" t="s">
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="108" t="s">
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
       <c r="BD1" s="105">
         <v>45560</v>
       </c>
@@ -3157,25 +3157,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -3186,42 +3186,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="108" t="s">
+      <c r="AB2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="107" t="s">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="108" t="s">
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="108" t="s">
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -3490,927 +3490,942 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="103" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="104"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107"/>
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103" t="s">
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103" t="s">
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103" t="s">
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="103"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="106"/>
+      <c r="BI8" s="106"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="102"/>
-      <c r="BC11" s="102"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="102"/>
-      <c r="BI11" s="102"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="103"/>
-      <c r="AW13" s="103"/>
-      <c r="AX13" s="103"/>
-      <c r="AY13" s="103"/>
-      <c r="AZ13" s="103"/>
-      <c r="BA13" s="103"/>
-      <c r="BB13" s="103"/>
-      <c r="BC13" s="103"/>
-      <c r="BD13" s="103"/>
-      <c r="BE13" s="103"/>
-      <c r="BF13" s="103"/>
-      <c r="BG13" s="103"/>
-      <c r="BH13" s="103"/>
-      <c r="BI13" s="103"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="106"/>
+      <c r="AZ13" s="106"/>
+      <c r="BA13" s="106"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="106"/>
+      <c r="BE13" s="106"/>
+      <c r="BF13" s="106"/>
+      <c r="BG13" s="106"/>
+      <c r="BH13" s="106"/>
+      <c r="BI13" s="106"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="102"/>
-      <c r="AU14" s="102"/>
-      <c r="AV14" s="102"/>
-      <c r="AW14" s="102"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="102"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102"/>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="102"/>
-      <c r="BI14" s="102"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="110"/>
+      <c r="AN14" s="110"/>
+      <c r="AO14" s="110"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="110"/>
+      <c r="AR14" s="110"/>
+      <c r="AS14" s="110"/>
+      <c r="AT14" s="110"/>
+      <c r="AU14" s="110"/>
+      <c r="AV14" s="110"/>
+      <c r="AW14" s="110"/>
+      <c r="AX14" s="110"/>
+      <c r="AY14" s="110"/>
+      <c r="AZ14" s="110"/>
+      <c r="BA14" s="110"/>
+      <c r="BB14" s="110"/>
+      <c r="BC14" s="110"/>
+      <c r="BD14" s="110"/>
+      <c r="BE14" s="110"/>
+      <c r="BF14" s="110"/>
+      <c r="BG14" s="110"/>
+      <c r="BH14" s="110"/>
+      <c r="BI14" s="110"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="102"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
-      <c r="BC15" s="102"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="102"/>
-      <c r="BI15" s="102"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="110"/>
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="110"/>
+      <c r="BA15" s="110"/>
+      <c r="BB15" s="110"/>
+      <c r="BC15" s="110"/>
+      <c r="BD15" s="110"/>
+      <c r="BE15" s="110"/>
+      <c r="BF15" s="110"/>
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
-      <c r="BC16" s="102"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102"/>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="102"/>
-      <c r="BI16" s="102"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AN16" s="110"/>
+      <c r="AO16" s="110"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="110"/>
+      <c r="AS16" s="110"/>
+      <c r="AT16" s="110"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="110"/>
+      <c r="AW16" s="110"/>
+      <c r="AX16" s="110"/>
+      <c r="AY16" s="110"/>
+      <c r="AZ16" s="110"/>
+      <c r="BA16" s="110"/>
+      <c r="BB16" s="110"/>
+      <c r="BC16" s="110"/>
+      <c r="BD16" s="110"/>
+      <c r="BE16" s="110"/>
+      <c r="BF16" s="110"/>
+      <c r="BG16" s="110"/>
+      <c r="BH16" s="110"/>
+      <c r="BI16" s="110"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="102"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="102"/>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="102"/>
-      <c r="AX17" s="102"/>
-      <c r="AY17" s="102"/>
-      <c r="AZ17" s="102"/>
-      <c r="BA17" s="102"/>
-      <c r="BB17" s="102"/>
-      <c r="BC17" s="102"/>
-      <c r="BD17" s="102"/>
-      <c r="BE17" s="102"/>
-      <c r="BF17" s="102"/>
-      <c r="BG17" s="102"/>
-      <c r="BH17" s="102"/>
-      <c r="BI17" s="102"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
+      <c r="AN17" s="110"/>
+      <c r="AO17" s="110"/>
+      <c r="AP17" s="110"/>
+      <c r="AQ17" s="110"/>
+      <c r="AR17" s="110"/>
+      <c r="AS17" s="110"/>
+      <c r="AT17" s="110"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="110"/>
+      <c r="AW17" s="110"/>
+      <c r="AX17" s="110"/>
+      <c r="AY17" s="110"/>
+      <c r="AZ17" s="110"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="110"/>
+      <c r="BG17" s="110"/>
+      <c r="BH17" s="110"/>
+      <c r="BI17" s="110"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="102"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="102"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102"/>
-      <c r="AX18" s="102"/>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="102"/>
-      <c r="BA18" s="102"/>
-      <c r="BB18" s="102"/>
-      <c r="BC18" s="102"/>
-      <c r="BD18" s="102"/>
-      <c r="BE18" s="102"/>
-      <c r="BF18" s="102"/>
-      <c r="BG18" s="102"/>
-      <c r="BH18" s="102"/>
-      <c r="BI18" s="102"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="110"/>
+      <c r="AN18" s="110"/>
+      <c r="AO18" s="110"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="110"/>
+      <c r="AR18" s="110"/>
+      <c r="AS18" s="110"/>
+      <c r="AT18" s="110"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="110"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="110"/>
+      <c r="BA18" s="110"/>
+      <c r="BB18" s="110"/>
+      <c r="BC18" s="110"/>
+      <c r="BD18" s="110"/>
+      <c r="BE18" s="110"/>
+      <c r="BF18" s="110"/>
+      <c r="BG18" s="110"/>
+      <c r="BH18" s="110"/>
+      <c r="BI18" s="110"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="102"/>
-      <c r="AG19" s="102"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="102"/>
-      <c r="AM19" s="102"/>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="102"/>
-      <c r="AT19" s="102"/>
-      <c r="AU19" s="102"/>
-      <c r="AV19" s="102"/>
-      <c r="AW19" s="102"/>
-      <c r="AX19" s="102"/>
-      <c r="AY19" s="102"/>
-      <c r="AZ19" s="102"/>
-      <c r="BA19" s="102"/>
-      <c r="BB19" s="102"/>
-      <c r="BC19" s="102"/>
-      <c r="BD19" s="102"/>
-      <c r="BE19" s="102"/>
-      <c r="BF19" s="102"/>
-      <c r="BG19" s="102"/>
-      <c r="BH19" s="102"/>
-      <c r="BI19" s="102"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="110"/>
+      <c r="AO19" s="110"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="110"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="110"/>
+      <c r="AT19" s="110"/>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="110"/>
+      <c r="AW19" s="110"/>
+      <c r="AX19" s="110"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="110"/>
+      <c r="BA19" s="110"/>
+      <c r="BB19" s="110"/>
+      <c r="BC19" s="110"/>
+      <c r="BD19" s="110"/>
+      <c r="BE19" s="110"/>
+      <c r="BF19" s="110"/>
+      <c r="BG19" s="110"/>
+      <c r="BH19" s="110"/>
+      <c r="BI19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -4427,29 +4442,14 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4463,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ77" sqref="AJ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4473,75 +4473,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="107" t="s">
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="108" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="108" t="s">
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="107" t="s">
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="108" t="s">
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
       <c r="BD1" s="105">
         <v>45554</v>
       </c>
@@ -4749,25 +4749,25 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
       <c r="T2" s="109"/>
@@ -4778,42 +4778,42 @@
       <c r="Y2" s="109"/>
       <c r="Z2" s="109"/>
       <c r="AA2" s="109"/>
-      <c r="AB2" s="108" t="s">
+      <c r="AB2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="107" t="s">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="108" t="s">
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="108" t="s">
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
       <c r="BD2" s="105"/>
       <c r="BE2" s="105"/>
       <c r="BF2" s="105"/>
@@ -5082,71 +5082,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5346,71 +5346,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="104"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -5870,75 +5870,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121" t="s">
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121" t="s">
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="121"/>
-      <c r="BG7" s="121"/>
-      <c r="BH7" s="121"/>
-      <c r="BI7" s="121"/>
+      <c r="AF7" s="118"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="118"/>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="118"/>
+      <c r="AO7" s="118"/>
+      <c r="AP7" s="118"/>
+      <c r="AQ7" s="118"/>
+      <c r="AR7" s="118"/>
+      <c r="AS7" s="118"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="118"/>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="118"/>
+      <c r="BB7" s="118"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="118"/>
+      <c r="BE7" s="118"/>
+      <c r="BF7" s="118"/>
+      <c r="BG7" s="118"/>
+      <c r="BH7" s="118"/>
+      <c r="BI7" s="118"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -6138,75 +6138,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="118" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="118" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="118" t="s">
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="119"/>
-      <c r="AO8" s="119"/>
-      <c r="AP8" s="119"/>
-      <c r="AQ8" s="119"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
-      <c r="BC8" s="119"/>
-      <c r="BD8" s="119"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="119"/>
-      <c r="BG8" s="119"/>
-      <c r="BH8" s="119"/>
-      <c r="BI8" s="120"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="116"/>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="117"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -6406,75 +6406,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111" t="s">
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="114"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
+      <c r="BI9" s="114"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -6674,75 +6674,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="104" t="s">
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -6942,75 +6942,75 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="111" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111" t="s">
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111" t="s">
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
-      <c r="AY11" s="111"/>
-      <c r="AZ11" s="111"/>
-      <c r="BA11" s="111"/>
-      <c r="BB11" s="111"/>
-      <c r="BC11" s="111"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="111"/>
-      <c r="BF11" s="111"/>
-      <c r="BG11" s="111"/>
-      <c r="BH11" s="111"/>
-      <c r="BI11" s="111"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -7210,75 +7210,75 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="111" t="s">
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111" t="s">
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="111"/>
-      <c r="AK12" s="111"/>
-      <c r="AL12" s="111"/>
-      <c r="AM12" s="111"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
-      <c r="AX12" s="111"/>
-      <c r="AY12" s="111"/>
-      <c r="AZ12" s="111"/>
-      <c r="BA12" s="111"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="111"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="111"/>
-      <c r="BF12" s="111"/>
-      <c r="BG12" s="111"/>
-      <c r="BH12" s="111"/>
-      <c r="BI12" s="111"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -7478,75 +7478,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="111" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="111"/>
-      <c r="AL13" s="111"/>
-      <c r="AM13" s="111"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
-      <c r="AX13" s="111"/>
-      <c r="AY13" s="111"/>
-      <c r="AZ13" s="111"/>
-      <c r="BA13" s="111"/>
-      <c r="BB13" s="111"/>
-      <c r="BC13" s="111"/>
-      <c r="BD13" s="111"/>
-      <c r="BE13" s="111"/>
-      <c r="BF13" s="111"/>
-      <c r="BG13" s="111"/>
-      <c r="BH13" s="111"/>
-      <c r="BI13" s="111"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -7746,75 +7746,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="111"/>
-      <c r="AJ14" s="111"/>
-      <c r="AK14" s="111"/>
-      <c r="AL14" s="111"/>
-      <c r="AM14" s="111"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="111"/>
-      <c r="AY14" s="111"/>
-      <c r="AZ14" s="111"/>
-      <c r="BA14" s="111"/>
-      <c r="BB14" s="111"/>
-      <c r="BC14" s="111"/>
-      <c r="BD14" s="111"/>
-      <c r="BE14" s="111"/>
-      <c r="BF14" s="111"/>
-      <c r="BG14" s="111"/>
-      <c r="BH14" s="111"/>
-      <c r="BI14" s="111"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -8014,75 +8014,75 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="111" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111" t="s">
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111" t="s">
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
-      <c r="AX15" s="111"/>
-      <c r="AY15" s="111"/>
-      <c r="AZ15" s="111"/>
-      <c r="BA15" s="111"/>
-      <c r="BB15" s="111"/>
-      <c r="BC15" s="111"/>
-      <c r="BD15" s="111"/>
-      <c r="BE15" s="111"/>
-      <c r="BF15" s="111"/>
-      <c r="BG15" s="111"/>
-      <c r="BH15" s="111"/>
-      <c r="BI15" s="111"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -8282,75 +8282,75 @@
       <c r="IX15" s="1"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="111" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111" t="s">
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="111"/>
-      <c r="AJ16" s="111"/>
-      <c r="AK16" s="111"/>
-      <c r="AL16" s="111"/>
-      <c r="AM16" s="111"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
-      <c r="AX16" s="111"/>
-      <c r="AY16" s="111"/>
-      <c r="AZ16" s="111"/>
-      <c r="BA16" s="111"/>
-      <c r="BB16" s="111"/>
-      <c r="BC16" s="111"/>
-      <c r="BD16" s="111"/>
-      <c r="BE16" s="111"/>
-      <c r="BF16" s="111"/>
-      <c r="BG16" s="111"/>
-      <c r="BH16" s="111"/>
-      <c r="BI16" s="111"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -9330,75 +9330,75 @@
       <c r="IX19" s="1"/>
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="116" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="114" t="s">
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="112" t="s">
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="122"/>
+      <c r="AP20" s="122"/>
+      <c r="AQ20" s="122"/>
+      <c r="AR20" s="122"/>
+      <c r="AS20" s="123"/>
+      <c r="AT20" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="AU20" s="112"/>
-      <c r="AV20" s="112"/>
-      <c r="AW20" s="112"/>
-      <c r="AX20" s="112"/>
-      <c r="AY20" s="112"/>
-      <c r="AZ20" s="112"/>
-      <c r="BA20" s="112"/>
-      <c r="BB20" s="112"/>
-      <c r="BC20" s="112"/>
-      <c r="BD20" s="112"/>
-      <c r="BE20" s="112"/>
-      <c r="BF20" s="112"/>
-      <c r="BG20" s="112"/>
-      <c r="BH20" s="112"/>
-      <c r="BI20" s="113"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="120"/>
+      <c r="BE20" s="120"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="121"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11"/>
@@ -11644,7 +11644,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="25"/>
       <c r="S29" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -11870,14 +11870,14 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="25"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
@@ -12102,13 +12102,13 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="25"/>
       <c r="S31" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -12336,11 +12336,11 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R32" s="25"/>
       <c r="T32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT32" s="8"/>
       <c r="BI32" s="44"/>
@@ -12543,7 +12543,7 @@
       <c r="Q33" s="51"/>
       <c r="R33" s="25"/>
       <c r="S33" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -12773,7 +12773,7 @@
       <c r="R34" s="26"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -15092,7 +15092,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
@@ -15352,7 +15352,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
@@ -21987,13 +21987,13 @@
         <v>87</v>
       </c>
       <c r="AT75" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="O76" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
@@ -22015,22 +22015,6 @@
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
       <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
-      <c r="AI77" s="16"/>
-      <c r="AJ77" s="16"/>
-      <c r="AK77" s="16"/>
-      <c r="AL77" s="16"/>
-      <c r="AM77" s="16"/>
-      <c r="AN77" s="16"/>
-      <c r="AO77" s="16"/>
-      <c r="AP77" s="16"/>
-      <c r="AQ77" s="16"/>
       <c r="AR77" s="16"/>
       <c r="AS77" s="19"/>
       <c r="AT77" s="8"/>
@@ -22046,6 +22030,22 @@
       <c r="S78" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="16"/>
+      <c r="AH78" s="16"/>
+      <c r="AI78" s="16"/>
+      <c r="AJ78" s="16"/>
+      <c r="AK78" s="16"/>
+      <c r="AL78" s="16"/>
+      <c r="AM78" s="16"/>
+      <c r="AN78" s="16"/>
+      <c r="AO78" s="16"/>
+      <c r="AP78" s="16"/>
+      <c r="AQ78" s="16"/>
       <c r="AT78" s="8"/>
     </row>
     <row r="79" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -22136,20 +22136,41 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="65">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:BI14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE15:BI15"/>
-    <mergeCell ref="AE12:BI12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="AT20:BI20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="S20:AS20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="AE16:BI16"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -22166,41 +22187,20 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:O12"/>
     <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="AT20:BI20"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="S20:AS20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AE16:BI16"/>
+    <mergeCell ref="AE12:BI12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:BI14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE15:BI15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -22224,7 +22224,7 @@
   <dimension ref="B1:Y26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="T8" sqref="T7:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22317,19 +22317,19 @@
       <c r="R10" s="99"/>
     </row>
     <row r="11" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="143"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="128"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99"/>
       <c r="R11" s="99"/>
@@ -22372,7 +22372,7 @@
       <c r="P12" s="99"/>
       <c r="Q12" s="99"/>
       <c r="R12" s="99"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="129" t="s">
         <v>100</v>
       </c>
       <c r="U12" s="85" t="s">
@@ -22384,14 +22384,14 @@
       <c r="Y12" s="88"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="135" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>106</v>
@@ -22429,7 +22429,7 @@
       <c r="P13" s="99"/>
       <c r="Q13" s="99"/>
       <c r="R13" s="99"/>
-      <c r="T13" s="126"/>
+      <c r="T13" s="130"/>
       <c r="U13" s="89"/>
       <c r="V13" s="57" t="s">
         <v>75</v>
@@ -22439,8 +22439,8 @@
       <c r="Y13" s="90"/>
     </row>
     <row r="14" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="67" t="s">
         <v>98</v>
       </c>
@@ -22480,11 +22480,11 @@
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
       <c r="R14" s="99"/>
-      <c r="T14" s="126" t="s">
+      <c r="T14" s="130" t="s">
         <v>101</v>
       </c>
       <c r="U14" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V14" s="55"/>
       <c r="W14" s="55"/>
@@ -22492,12 +22492,12 @@
       <c r="Y14" s="92"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="129"/>
-      <c r="C15" s="133" t="s">
-        <v>133</v>
+      <c r="B15" s="133"/>
+      <c r="C15" s="137" t="s">
+        <v>132</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>106</v>
@@ -22534,20 +22534,20 @@
       </c>
       <c r="P15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="T15" s="126"/>
+      <c r="T15" s="130"/>
       <c r="U15" s="93"/>
       <c r="V15" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W15" s="20"/>
       <c r="X15" s="54"/>
       <c r="Y15" s="94"/>
     </row>
     <row r="16" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="129"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>107</v>
@@ -22584,7 +22584,7 @@
       </c>
       <c r="P16" s="99"/>
       <c r="R16" s="99"/>
-      <c r="T16" s="126"/>
+      <c r="T16" s="130"/>
       <c r="U16" s="95"/>
       <c r="V16" s="57" t="s">
         <v>75</v>
@@ -22594,10 +22594,10 @@
       <c r="Y16" s="90"/>
     </row>
     <row r="17" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="130"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="144" t="s">
-        <v>138</v>
+      <c r="B17" s="134"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="102" t="s">
+        <v>137</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>107</v>
@@ -22632,7 +22632,7 @@
       <c r="O17" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="T17" s="126" t="s">
+      <c r="T17" s="130" t="s">
         <v>102</v>
       </c>
       <c r="U17" s="91" t="s">
@@ -22644,10 +22644,10 @@
       <c r="Y17" s="92"/>
     </row>
     <row r="18" spans="2:25" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="136"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="69" t="s">
         <v>100</v>
       </c>
@@ -22666,7 +22666,7 @@
       <c r="O18" s="80"/>
       <c r="P18" s="99"/>
       <c r="R18" s="99"/>
-      <c r="T18" s="126"/>
+      <c r="T18" s="130"/>
       <c r="U18" s="93"/>
       <c r="V18" s="20" t="s">
         <v>94</v>
@@ -22676,8 +22676,8 @@
       <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="68" t="s">
         <v>101</v>
       </c>
@@ -22698,7 +22698,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="99"/>
       <c r="R19" s="99"/>
-      <c r="T19" s="126"/>
+      <c r="T19" s="130"/>
       <c r="U19" s="95"/>
       <c r="V19" s="57" t="s">
         <v>75</v>
@@ -22708,8 +22708,8 @@
       <c r="Y19" s="90"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="68" t="s">
         <v>102</v>
       </c>
@@ -22729,11 +22729,11 @@
       <c r="P20" s="99"/>
       <c r="Q20" s="99"/>
       <c r="R20" s="99"/>
-      <c r="T20" s="126" t="s">
+      <c r="T20" s="130" t="s">
         <v>103</v>
       </c>
       <c r="U20" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
@@ -22741,8 +22741,8 @@
       <c r="Y20" s="92"/>
     </row>
     <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="68" t="s">
         <v>103</v>
       </c>
@@ -22764,18 +22764,18 @@
       <c r="P21" s="99"/>
       <c r="Q21" s="99"/>
       <c r="R21" s="99"/>
-      <c r="T21" s="126"/>
+      <c r="T21" s="130"/>
       <c r="U21" s="93"/>
       <c r="V21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W21" s="20"/>
       <c r="X21" s="54"/>
       <c r="Y21" s="94"/>
     </row>
     <row r="22" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="70" t="s">
         <v>109</v>
       </c>
@@ -22803,7 +22803,7 @@
       <c r="P22" s="99"/>
       <c r="Q22" s="99"/>
       <c r="R22" s="99"/>
-      <c r="T22" s="127"/>
+      <c r="T22" s="131"/>
       <c r="U22" s="96"/>
       <c r="V22" s="97" t="s">
         <v>75</v>
@@ -22820,15 +22820,15 @@
     <row r="26" spans="2:25" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:C22"/>
     <mergeCell ref="E11:O11"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="T14:T16"/>
     <mergeCell ref="T17:T19"/>
     <mergeCell ref="T20:T22"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:C22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22845,12 +22845,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -22982,6 +22976,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
@@ -22991,15 +22991,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23015,4 +23006,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>